--- a/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
+++ b/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Elementos totales" sheetId="2" r:id="rId2"/>
+    <sheet name="Luzbin" sheetId="1" r:id="rId1"/>
+    <sheet name="Elementos Digikey" sheetId="2" r:id="rId2"/>
+    <sheet name="Elementos Analog Devices" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Elementos totales'!$C$1:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Elementos Analog Devices'!$C$1:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Elementos Digikey'!$C$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="573">
   <si>
     <t>version</t>
   </si>
@@ -1693,6 +1695,63 @@
   </si>
   <si>
     <t>SOIC 8</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Precio 1</t>
+  </si>
+  <si>
+    <t>Precio 10</t>
+  </si>
+  <si>
+    <t>Precio 20</t>
+  </si>
+  <si>
+    <t>Precio 50</t>
+  </si>
+  <si>
+    <t>Precio 100</t>
+  </si>
+  <si>
+    <t>10 ld MSOP</t>
+  </si>
+  <si>
+    <t>AD9833SRMZ-EP-RL7</t>
+  </si>
+  <si>
+    <t>AD8421ARZ</t>
+  </si>
+  <si>
+    <t>8 ld SOIC</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AD5270BRMZ-100</t>
+  </si>
+  <si>
+    <t>AD8651ARMZ</t>
+  </si>
+  <si>
+    <t>3 ld TO-92</t>
+  </si>
+  <si>
+    <t>ADR291GT9Z</t>
+  </si>
+  <si>
+    <t>8 ld MSOP</t>
+  </si>
+  <si>
+    <t>ADG819BRMZ</t>
+  </si>
+  <si>
+    <t>ADP3303ARZ-3.3</t>
   </si>
 </sst>
 </file>
@@ -2406,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView topLeftCell="N70" workbookViewId="0">
+      <selection activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,28 +2877,28 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="2" t="s">
         <v>201</v>
       </c>
       <c r="W6" s="1"/>
@@ -2873,28 +2932,28 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="2" t="s">
         <v>202</v>
       </c>
       <c r="W7" s="1"/>
@@ -2928,28 +2987,28 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="2" t="s">
         <v>203</v>
       </c>
       <c r="W8" s="1"/>
@@ -2983,28 +3042,28 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="2" t="s">
         <v>204</v>
       </c>
       <c r="W9" s="1"/>
@@ -3038,28 +3097,28 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="2" t="s">
         <v>205</v>
       </c>
       <c r="W10" s="1"/>
@@ -3093,28 +3152,28 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="2" t="s">
         <v>206</v>
       </c>
       <c r="W11" s="1"/>
@@ -6417,31 +6476,31 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1" t="s">
+      <c r="O67" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="Q67" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="R67" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="S67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="T67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="U67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="V67" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="W67" s="2" t="s">
         <v>505</v>
       </c>
       <c r="X67" s="1"/>
@@ -6535,31 +6594,31 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1" t="s">
+      <c r="O69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P69" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="Q69" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="R69" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="S69" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="T69" s="1" t="s">
+      <c r="T69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U69" s="1" t="s">
+      <c r="U69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="V69" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="W69" s="2" t="s">
         <v>505</v>
       </c>
       <c r="X69" s="1"/>
@@ -7123,28 +7182,28 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1" t="s">
+      <c r="O79" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="Q79" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="R79" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S79" s="1" t="s">
+      <c r="S79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="T79" s="1" t="s">
+      <c r="T79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U79" s="1" t="s">
+      <c r="U79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V79" s="1" t="s">
+      <c r="V79" s="2" t="s">
         <v>274</v>
       </c>
       <c r="W79" s="1"/>
@@ -7178,28 +7237,28 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1" t="s">
+      <c r="O80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P80" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="Q80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="R80" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="S80" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T80" s="1" t="s">
+      <c r="T80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U80" s="1" t="s">
+      <c r="U80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V80" s="1" t="s">
+      <c r="V80" s="2" t="s">
         <v>275</v>
       </c>
       <c r="W80" s="1"/>
@@ -32129,10 +32188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K42"/>
+  <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32144,10 +32203,9 @@
     <col min="7" max="7" width="8" style="16" customWidth="1"/>
     <col min="8" max="8" width="9" style="16" customWidth="1"/>
     <col min="9" max="9" width="8" style="16" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>493</v>
       </c>
@@ -32173,10 +32231,22 @@
         <v>496</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>362</v>
       </c>
@@ -32202,12 +32272,13 @@
         <f>G2+H2+I2</f>
         <v>4</v>
       </c>
-      <c r="K2" s="3">
-        <f>J2*5</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>362</v>
       </c>
@@ -32233,12 +32304,13 @@
         <f t="shared" ref="J3:J42" si="0">G3+H3+I3</f>
         <v>32</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K42" si="1">J3*5</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>362</v>
       </c>
@@ -32264,12 +32336,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>363</v>
       </c>
@@ -32295,12 +32368,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>363</v>
       </c>
@@ -32326,12 +32400,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>362</v>
       </c>
@@ -32357,12 +32432,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>362</v>
       </c>
@@ -32388,12 +32464,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>363</v>
       </c>
@@ -32419,12 +32496,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>362</v>
       </c>
@@ -32450,12 +32528,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>362</v>
       </c>
@@ -32481,12 +32560,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>511</v>
       </c>
@@ -32512,12 +32592,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>511</v>
       </c>
@@ -32543,12 +32624,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>516</v>
       </c>
@@ -32574,12 +32656,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>362</v>
       </c>
@@ -32605,12 +32688,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>363</v>
       </c>
@@ -32636,12 +32720,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K16" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>362</v>
       </c>
@@ -32667,12 +32752,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>526</v>
       </c>
@@ -32698,12 +32784,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>526</v>
       </c>
@@ -32729,12 +32816,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>363</v>
       </c>
@@ -32760,12 +32848,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K20" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>363</v>
       </c>
@@ -32791,12 +32880,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>363</v>
       </c>
@@ -32822,12 +32912,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>363</v>
       </c>
@@ -32853,12 +32944,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>363</v>
@@ -32885,12 +32977,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K24" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="10" t="s">
         <v>362</v>
@@ -32917,12 +33010,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>362</v>
       </c>
@@ -32948,12 +33042,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
         <v>362</v>
       </c>
@@ -32979,12 +33074,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
         <v>363</v>
       </c>
@@ -33010,12 +33106,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>362</v>
       </c>
@@ -33041,12 +33138,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K29" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
         <v>550</v>
       </c>
@@ -33072,12 +33170,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K30" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="D31" s="18"/>
       <c r="E31" s="8"/>
@@ -33089,12 +33188,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
       <c r="D32" s="18"/>
       <c r="E32" s="8"/>
@@ -33106,10 +33206,772 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="3">
-        <f t="shared" si="1"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="10"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="10"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="10"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="10"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="10"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="10"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:J42"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <f>G2+H2+I2</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J42" si="0">G3+H3+I3</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="10"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="10"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="10"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="10"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="10"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
@@ -33123,10 +33985,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
@@ -33140,10 +33999,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
@@ -33157,10 +34013,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
@@ -33174,10 +34027,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
@@ -33191,10 +34041,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
@@ -33208,10 +34055,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
@@ -33225,10 +34069,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
@@ -33242,10 +34083,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
@@ -33259,10 +34097,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
@@ -33276,10 +34111,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K42" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:K42"/>

--- a/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
+++ b/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Luzbin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="574">
   <si>
     <t>version</t>
   </si>
@@ -1652,9 +1652,6 @@
     <t>1,4M</t>
   </si>
   <si>
-    <t>Cantidad X5</t>
-  </si>
-  <si>
     <t>P1.4BTTR-ND</t>
   </si>
   <si>
@@ -1752,6 +1749,12 @@
   </si>
   <si>
     <t>ADP3303ARZ-3.3</t>
+  </si>
+  <si>
+    <t>535-9193-5-ND</t>
+  </si>
+  <si>
+    <t>Cantidad X3</t>
   </si>
 </sst>
 </file>
@@ -1865,13 +1868,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2465,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView topLeftCell="N70" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView topLeftCell="N82" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32190,14 +32193,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" style="11"/>
-    <col min="4" max="4" width="11.42578125" style="19"/>
+    <col min="4" max="4" width="11.42578125" style="18"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="7" width="8" style="16" customWidth="1"/>
@@ -32231,26 +32234,26 @@
         <v>496</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>499</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -32282,7 +32285,7 @@
       <c r="C3" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>498</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -32314,7 +32317,7 @@
       <c r="C4" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>497</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -32346,7 +32349,7 @@
       <c r="C5" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -32378,7 +32381,7 @@
       <c r="C6" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -32410,7 +32413,7 @@
       <c r="C7" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>149</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -32442,7 +32445,7 @@
       <c r="C8" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -32474,7 +32477,7 @@
       <c r="C9" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -32506,7 +32509,7 @@
       <c r="C10" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -32538,7 +32541,7 @@
       <c r="C11" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>150</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -32570,7 +32573,7 @@
       <c r="C12" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>512</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -32602,7 +32605,7 @@
       <c r="C13" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>514</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -32634,7 +32637,7 @@
       <c r="C14" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>513</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -32666,7 +32669,7 @@
       <c r="C15" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>520</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -32698,7 +32701,7 @@
       <c r="C16" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>522</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -32730,7 +32733,7 @@
       <c r="C17" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>524</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -32762,7 +32765,7 @@
       <c r="C18" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>514</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -32794,7 +32797,7 @@
       <c r="C19" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>528</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -32826,7 +32829,7 @@
       <c r="C20" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>530</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -32858,7 +32861,7 @@
       <c r="C21" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>532</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -32890,7 +32893,7 @@
       <c r="C22" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>534</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -32922,7 +32925,7 @@
       <c r="C23" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>536</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -32951,18 +32954,18 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>538</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G24" s="12">
         <v>1</v>
@@ -32984,18 +32987,18 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>541</v>
+      <c r="D25" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G25" s="12">
         <v>1</v>
@@ -33020,14 +33023,14 @@
       <c r="C26" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>543</v>
+      <c r="D26" s="17" t="s">
+        <v>542</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G26" s="12">
         <v>1</v>
@@ -33052,14 +33055,14 @@
       <c r="C27" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>545</v>
+      <c r="D27" s="17" t="s">
+        <v>544</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G27" s="12">
         <v>2</v>
@@ -33084,14 +33087,14 @@
       <c r="C28" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>470</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G28" s="12">
         <v>1</v>
@@ -33116,14 +33119,14 @@
       <c r="C29" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>548</v>
+      <c r="D29" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G29" s="12">
         <v>1</v>
@@ -33146,16 +33149,16 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="G30" s="12">
         <v>1</v>
@@ -33177,16 +33180,30 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="10"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="C31" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1</v>
+      </c>
       <c r="J31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -33196,7 +33213,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="8"/>
       <c r="F32" s="3"/>
       <c r="G32" s="12"/>
@@ -33214,7 +33231,7 @@
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="8"/>
       <c r="F33" s="3"/>
       <c r="G33" s="12"/>
@@ -33232,7 +33249,7 @@
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="8"/>
       <c r="F34" s="3"/>
       <c r="G34" s="12"/>
@@ -33250,7 +33267,7 @@
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="8"/>
       <c r="F35" s="3"/>
       <c r="G35" s="12"/>
@@ -33268,7 +33285,7 @@
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
       <c r="G36" s="12"/>
@@ -33286,7 +33303,7 @@
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
       <c r="G37" s="12"/>
@@ -33304,7 +33321,7 @@
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
       <c r="G38" s="12"/>
@@ -33322,7 +33339,7 @@
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="8"/>
       <c r="F39" s="3"/>
       <c r="G39" s="12"/>
@@ -33340,7 +33357,7 @@
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="8"/>
       <c r="F40" s="3"/>
       <c r="G40" s="12"/>
@@ -33358,7 +33375,7 @@
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="8"/>
       <c r="F41" s="3"/>
       <c r="G41" s="12"/>
@@ -33376,7 +33393,7 @@
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="8"/>
       <c r="F42" s="3"/>
       <c r="G42" s="12"/>
@@ -33403,13 +33420,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.25">
@@ -33423,7 +33441,7 @@
         <v>502</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>506</v>
@@ -33438,21 +33456,21 @@
         <v>496</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D2" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>142</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
@@ -33467,48 +33485,54 @@
         <f>G2+H2+I2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <f>J2*3</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D3" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>143</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>564</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>565</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J42" si="0">G3+H3+I3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K42" si="1">J3*3</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D4" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -33523,20 +33547,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D5" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>161</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -33551,20 +33578,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>162</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="G6" s="14">
         <v>0</v>
@@ -33579,20 +33609,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D7" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>571</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -33607,20 +33640,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D8" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>166</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -33635,11 +33671,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="8"/>
       <c r="F9" s="3"/>
       <c r="G9" s="12"/>
@@ -33649,11 +33688,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="8"/>
       <c r="F10" s="3"/>
       <c r="G10" s="12"/>
@@ -33663,11 +33705,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="8"/>
       <c r="F11" s="3"/>
       <c r="G11" s="12"/>
@@ -33677,11 +33722,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="8"/>
       <c r="F12" s="3"/>
       <c r="G12" s="12"/>
@@ -33691,11 +33739,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="8"/>
       <c r="F13" s="3"/>
       <c r="G13" s="12"/>
@@ -33705,11 +33756,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3"/>
       <c r="G14" s="12"/>
@@ -33719,11 +33773,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3"/>
       <c r="G15" s="12"/>
@@ -33733,11 +33790,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="8"/>
       <c r="F16" s="3"/>
       <c r="G16" s="12"/>
@@ -33747,11 +33807,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="8"/>
       <c r="F17" s="3"/>
       <c r="G17" s="12"/>
@@ -33761,11 +33824,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
       <c r="G18" s="12"/>
@@ -33775,11 +33841,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
       <c r="G19" s="12"/>
@@ -33789,11 +33858,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="8"/>
       <c r="F20" s="3"/>
       <c r="G20" s="12"/>
@@ -33803,11 +33875,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="8"/>
       <c r="F21" s="3"/>
       <c r="G21" s="12"/>
@@ -33817,11 +33892,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" s="12"/>
@@ -33831,11 +33909,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="8"/>
       <c r="F23" s="3"/>
       <c r="G23" s="12"/>
@@ -33845,11 +33926,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="8"/>
       <c r="F24" s="3"/>
       <c r="G24" s="12"/>
@@ -33859,11 +33943,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="8"/>
       <c r="F25" s="3"/>
       <c r="G25" s="12"/>
@@ -33873,11 +33960,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="10"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="12"/>
@@ -33887,11 +33977,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="12"/>
@@ -33901,11 +33994,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="8"/>
       <c r="F28" s="3"/>
       <c r="G28" s="12"/>
@@ -33915,11 +34011,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="8"/>
       <c r="F29" s="3"/>
       <c r="G29" s="12"/>
@@ -33929,11 +34028,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="8"/>
       <c r="F30" s="3"/>
       <c r="G30" s="12"/>
@@ -33943,11 +34045,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="8"/>
       <c r="F31" s="3"/>
       <c r="G31" s="12"/>
@@ -33957,11 +34062,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="8"/>
       <c r="F32" s="3"/>
       <c r="G32" s="12"/>
@@ -33971,11 +34079,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="8"/>
       <c r="F33" s="3"/>
       <c r="G33" s="12"/>
@@ -33985,11 +34096,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="8"/>
       <c r="F34" s="3"/>
       <c r="G34" s="12"/>
@@ -33999,11 +34113,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="8"/>
       <c r="F35" s="3"/>
       <c r="G35" s="12"/>
@@ -34013,11 +34130,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
       <c r="G36" s="12"/>
@@ -34027,11 +34147,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
       <c r="G37" s="12"/>
@@ -34041,11 +34164,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
       <c r="G38" s="12"/>
@@ -34055,11 +34181,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K38" s="3"/>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="8"/>
       <c r="F39" s="3"/>
       <c r="G39" s="12"/>
@@ -34069,11 +34198,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="8"/>
       <c r="F40" s="3"/>
       <c r="G40" s="12"/>
@@ -34083,11 +34215,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K40" s="3"/>
+      <c r="K40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="8"/>
       <c r="F41" s="3"/>
       <c r="G41" s="12"/>
@@ -34097,11 +34232,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="8"/>
       <c r="F42" s="3"/>
       <c r="G42" s="12"/>
@@ -34111,7 +34249,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:K42"/>

--- a/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
+++ b/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Luzbin" sheetId="1" r:id="rId1"/>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView topLeftCell="N82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N82" workbookViewId="0">
       <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
@@ -33420,8 +33420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
+++ b/Lista de Elementos_16_05_2017/Lista_Luzbin.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="576">
   <si>
     <t>version</t>
   </si>
@@ -1755,6 +1755,12 @@
   </si>
   <si>
     <t>Cantidad X3</t>
+  </si>
+  <si>
+    <t>ATMEGA328PB-AU-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA328</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2082,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:AN579" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:AN579"/>
+  <autoFilter ref="A1:AN579">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="10uF"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="Capacitors_SMD:C_1206_HandSoldering"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="40">
     <tableColumn id="1" uniqueName="version" name="version">
       <xmlColumnPr mapId="1" xpath="/export/@version" xmlDataType="string"/>
@@ -2468,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N82" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,7 +2654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2694,7 +2711,7 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2751,7 +2768,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2808,7 +2825,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2865,7 +2882,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,7 +2937,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,7 +2992,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,7 +3047,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -3085,7 +3102,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3140,7 +3157,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -3195,7 +3212,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -3250,7 +3267,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3309,7 +3326,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3368,7 +3385,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3427,7 +3444,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -3486,7 +3503,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -3545,7 +3562,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -3604,7 +3621,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +3680,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -3722,7 +3739,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3781,7 +3798,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3840,7 +3857,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3899,7 +3916,7 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3958,7 +3975,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -4017,7 +4034,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -4076,7 +4093,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -4135,7 +4152,7 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -4194,7 +4211,7 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4253,7 +4270,7 @@
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -4314,7 +4331,7 @@
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -4619,7 +4636,7 @@
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -4741,7 +4758,7 @@
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -4802,7 +4819,7 @@
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -4863,7 +4880,7 @@
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -4922,7 +4939,7 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -4981,7 +4998,7 @@
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -5040,7 +5057,7 @@
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -5099,7 +5116,7 @@
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -5158,7 +5175,7 @@
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -5217,7 +5234,7 @@
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -5278,7 +5295,7 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -5339,7 +5356,7 @@
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -5400,7 +5417,7 @@
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -5461,7 +5478,7 @@
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -5520,7 +5537,7 @@
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5579,7 +5596,7 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
@@ -5638,7 +5655,7 @@
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -5697,7 +5714,7 @@
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -5756,7 +5773,7 @@
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -5815,7 +5832,7 @@
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -5874,7 +5891,7 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
@@ -5933,7 +5950,7 @@
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -5992,7 +6009,7 @@
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -6051,7 +6068,7 @@
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -6110,7 +6127,7 @@
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -6169,7 +6186,7 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -6228,7 +6245,7 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -6287,7 +6304,7 @@
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -6346,7 +6363,7 @@
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -6405,7 +6422,7 @@
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
@@ -6464,7 +6481,7 @@
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -6523,7 +6540,7 @@
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -6582,7 +6599,7 @@
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
@@ -6641,7 +6658,7 @@
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -6702,7 +6719,7 @@
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -6763,7 +6780,7 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -6822,7 +6839,7 @@
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -6881,7 +6898,7 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -6936,7 +6953,7 @@
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -6991,7 +7008,7 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -7050,7 +7067,7 @@
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
@@ -7111,7 +7128,7 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -7170,7 +7187,7 @@
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -7225,7 +7242,7 @@
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -7280,7 +7297,7 @@
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -7335,7 +7352,7 @@
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -7390,7 +7407,7 @@
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -7445,7 +7462,7 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -7500,7 +7517,7 @@
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -7555,7 +7572,7 @@
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -7610,7 +7627,7 @@
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -7665,7 +7682,7 @@
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -7724,7 +7741,7 @@
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -7783,7 +7800,7 @@
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -7844,7 +7861,7 @@
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -7905,7 +7922,7 @@
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -7960,7 +7977,7 @@
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -8015,7 +8032,7 @@
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -8070,7 +8087,7 @@
       <c r="AL94" s="1"/>
       <c r="AM94" s="1"/>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -8125,7 +8142,7 @@
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -8180,7 +8197,7 @@
       <c r="AL96" s="1"/>
       <c r="AM96" s="1"/>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -8235,7 +8252,7 @@
       <c r="AL97" s="1"/>
       <c r="AM97" s="1"/>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
@@ -8290,7 +8307,7 @@
       <c r="AL98" s="1"/>
       <c r="AM98" s="1"/>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -8345,7 +8362,7 @@
       <c r="AL99" s="1"/>
       <c r="AM99" s="1"/>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -8400,7 +8417,7 @@
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -8455,7 +8472,7 @@
       <c r="AL101" s="1"/>
       <c r="AM101" s="1"/>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -8502,7 +8519,7 @@
       <c r="AL102" s="1"/>
       <c r="AM102" s="1"/>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -8549,7 +8566,7 @@
       <c r="AL103" s="1"/>
       <c r="AM103" s="1"/>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -8596,7 +8613,7 @@
       <c r="AL104" s="1"/>
       <c r="AM104" s="1"/>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
@@ -8643,7 +8660,7 @@
       <c r="AL105" s="1"/>
       <c r="AM105" s="1"/>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>40</v>
       </c>
@@ -8690,7 +8707,7 @@
       <c r="AL106" s="1"/>
       <c r="AM106" s="1"/>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -8739,7 +8756,7 @@
       <c r="AL107" s="1"/>
       <c r="AM107" s="1"/>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>40</v>
       </c>
@@ -8788,7 +8805,7 @@
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
@@ -8837,7 +8854,7 @@
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>40</v>
       </c>
@@ -8886,7 +8903,7 @@
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -8938,7 +8955,7 @@
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
@@ -8990,7 +9007,7 @@
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -9037,7 +9054,7 @@
       <c r="AL113" s="1"/>
       <c r="AM113" s="1"/>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>40</v>
       </c>
@@ -9084,7 +9101,7 @@
       <c r="AL114" s="1"/>
       <c r="AM114" s="1"/>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>40</v>
       </c>
@@ -9131,7 +9148,7 @@
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
@@ -9178,7 +9195,7 @@
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
@@ -9225,7 +9242,7 @@
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -9274,7 +9291,7 @@
       <c r="AL118" s="1"/>
       <c r="AM118" s="1"/>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>40</v>
       </c>
@@ -9323,7 +9340,7 @@
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>40</v>
       </c>
@@ -9372,7 +9389,7 @@
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>40</v>
       </c>
@@ -9421,7 +9438,7 @@
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>40</v>
       </c>
@@ -9473,7 +9490,7 @@
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>40</v>
       </c>
@@ -9525,7 +9542,7 @@
       <c r="AL123" s="1"/>
       <c r="AM123" s="1"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
@@ -9572,7 +9589,7 @@
       <c r="AL124" s="1"/>
       <c r="AM124" s="1"/>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>40</v>
       </c>
@@ -9619,7 +9636,7 @@
       <c r="AL125" s="1"/>
       <c r="AM125" s="1"/>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>40</v>
       </c>
@@ -9666,7 +9683,7 @@
       <c r="AL126" s="1"/>
       <c r="AM126" s="1"/>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>40</v>
       </c>
@@ -9713,7 +9730,7 @@
       <c r="AL127" s="1"/>
       <c r="AM127" s="1"/>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>40</v>
       </c>
@@ -9760,7 +9777,7 @@
       <c r="AL128" s="1"/>
       <c r="AM128" s="1"/>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -9809,7 +9826,7 @@
       <c r="AL129" s="1"/>
       <c r="AM129" s="1"/>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>40</v>
       </c>
@@ -9858,7 +9875,7 @@
       <c r="AL130" s="1"/>
       <c r="AM130" s="1"/>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>40</v>
       </c>
@@ -9907,7 +9924,7 @@
       <c r="AL131" s="1"/>
       <c r="AM131" s="1"/>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>40</v>
       </c>
@@ -9956,7 +9973,7 @@
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>40</v>
       </c>
@@ -10008,7 +10025,7 @@
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>40</v>
       </c>
@@ -10060,7 +10077,7 @@
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>40</v>
       </c>
@@ -10107,7 +10124,7 @@
       <c r="AL135" s="1"/>
       <c r="AM135" s="1"/>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>40</v>
       </c>
@@ -10154,7 +10171,7 @@
       <c r="AL136" s="1"/>
       <c r="AM136" s="1"/>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
@@ -10203,7 +10220,7 @@
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>40</v>
       </c>
@@ -10252,7 +10269,7 @@
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>40</v>
       </c>
@@ -10301,7 +10318,7 @@
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>40</v>
       </c>
@@ -10350,7 +10367,7 @@
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>40</v>
       </c>
@@ -10402,7 +10419,7 @@
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -10454,7 +10471,7 @@
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>40</v>
       </c>
@@ -10501,7 +10518,7 @@
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -10548,7 +10565,7 @@
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>40</v>
       </c>
@@ -10597,7 +10614,7 @@
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>40</v>
       </c>
@@ -10646,7 +10663,7 @@
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>40</v>
       </c>
@@ -10695,7 +10712,7 @@
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>40</v>
       </c>
@@ -10744,7 +10761,7 @@
       <c r="AL148" s="1"/>
       <c r="AM148" s="1"/>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>40</v>
       </c>
@@ -10796,7 +10813,7 @@
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>40</v>
       </c>
@@ -10848,7 +10865,7 @@
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>40</v>
       </c>
@@ -10895,7 +10912,7 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -10942,7 +10959,7 @@
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>40</v>
       </c>
@@ -10989,7 +11006,7 @@
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>40</v>
       </c>
@@ -11036,7 +11053,7 @@
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>40</v>
       </c>
@@ -11083,7 +11100,7 @@
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>40</v>
       </c>
@@ -11132,7 +11149,7 @@
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>40</v>
       </c>
@@ -11181,7 +11198,7 @@
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>40</v>
       </c>
@@ -11230,7 +11247,7 @@
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>40</v>
       </c>
@@ -11279,7 +11296,7 @@
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>40</v>
       </c>
@@ -11331,7 +11348,7 @@
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>40</v>
       </c>
@@ -11383,7 +11400,7 @@
       <c r="AL161" s="1"/>
       <c r="AM161" s="1"/>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>40</v>
       </c>
@@ -11430,7 +11447,7 @@
       <c r="AL162" s="1"/>
       <c r="AM162" s="1"/>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
@@ -11477,7 +11494,7 @@
       <c r="AL163" s="1"/>
       <c r="AM163" s="1"/>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
@@ -11526,7 +11543,7 @@
       <c r="AL164" s="1"/>
       <c r="AM164" s="1"/>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
@@ -11575,7 +11592,7 @@
       <c r="AL165" s="1"/>
       <c r="AM165" s="1"/>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -11624,7 +11641,7 @@
       <c r="AL166" s="1"/>
       <c r="AM166" s="1"/>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -11673,7 +11690,7 @@
       <c r="AL167" s="1"/>
       <c r="AM167" s="1"/>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>40</v>
       </c>
@@ -11725,7 +11742,7 @@
       <c r="AL168" s="1"/>
       <c r="AM168" s="1"/>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>40</v>
       </c>
@@ -11777,7 +11794,7 @@
       <c r="AL169" s="1"/>
       <c r="AM169" s="1"/>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>40</v>
       </c>
@@ -11824,7 +11841,7 @@
       <c r="AL170" s="1"/>
       <c r="AM170" s="1"/>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>40</v>
       </c>
@@ -11871,7 +11888,7 @@
       <c r="AL171" s="1"/>
       <c r="AM171" s="1"/>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>40</v>
       </c>
@@ -11918,7 +11935,7 @@
       <c r="AL172" s="1"/>
       <c r="AM172" s="1"/>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>40</v>
       </c>
@@ -11965,7 +11982,7 @@
       <c r="AL173" s="1"/>
       <c r="AM173" s="1"/>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>40</v>
       </c>
@@ -12012,7 +12029,7 @@
       <c r="AL174" s="1"/>
       <c r="AM174" s="1"/>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>40</v>
       </c>
@@ -12061,7 +12078,7 @@
       <c r="AL175" s="1"/>
       <c r="AM175" s="1"/>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>40</v>
       </c>
@@ -12110,7 +12127,7 @@
       <c r="AL176" s="1"/>
       <c r="AM176" s="1"/>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>40</v>
       </c>
@@ -12159,7 +12176,7 @@
       <c r="AL177" s="1"/>
       <c r="AM177" s="1"/>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>40</v>
       </c>
@@ -12208,7 +12225,7 @@
       <c r="AL178" s="1"/>
       <c r="AM178" s="1"/>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>40</v>
       </c>
@@ -12260,7 +12277,7 @@
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>40</v>
       </c>
@@ -12312,7 +12329,7 @@
       <c r="AL180" s="1"/>
       <c r="AM180" s="1"/>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>40</v>
       </c>
@@ -12359,7 +12376,7 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>40</v>
       </c>
@@ -12406,7 +12423,7 @@
       <c r="AL182" s="1"/>
       <c r="AM182" s="1"/>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>40</v>
       </c>
@@ -12453,7 +12470,7 @@
       <c r="AL183" s="1"/>
       <c r="AM183" s="1"/>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>40</v>
       </c>
@@ -12500,7 +12517,7 @@
       <c r="AL184" s="1"/>
       <c r="AM184" s="1"/>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>40</v>
       </c>
@@ -12547,7 +12564,7 @@
       <c r="AL185" s="1"/>
       <c r="AM185" s="1"/>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>40</v>
       </c>
@@ -12596,7 +12613,7 @@
       <c r="AL186" s="1"/>
       <c r="AM186" s="1"/>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>40</v>
       </c>
@@ -12645,7 +12662,7 @@
       <c r="AL187" s="1"/>
       <c r="AM187" s="1"/>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>40</v>
       </c>
@@ -12694,7 +12711,7 @@
       <c r="AL188" s="1"/>
       <c r="AM188" s="1"/>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>40</v>
       </c>
@@ -12743,7 +12760,7 @@
       <c r="AL189" s="1"/>
       <c r="AM189" s="1"/>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>40</v>
       </c>
@@ -12795,7 +12812,7 @@
       <c r="AL190" s="1"/>
       <c r="AM190" s="1"/>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>40</v>
       </c>
@@ -12847,7 +12864,7 @@
       <c r="AL191" s="1"/>
       <c r="AM191" s="1"/>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>40</v>
       </c>
@@ -12896,7 +12913,7 @@
       <c r="AL192" s="1"/>
       <c r="AM192" s="1"/>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>40</v>
       </c>
@@ -12947,7 +12964,7 @@
       <c r="AL193" s="1"/>
       <c r="AM193" s="1"/>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>40</v>
       </c>
@@ -12998,7 +13015,7 @@
       <c r="AL194" s="1"/>
       <c r="AM194" s="1"/>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>40</v>
       </c>
@@ -13052,7 +13069,7 @@
       <c r="AL195" s="1"/>
       <c r="AM195" s="1"/>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>40</v>
       </c>
@@ -13106,7 +13123,7 @@
       <c r="AL196" s="1"/>
       <c r="AM196" s="1"/>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>40</v>
       </c>
@@ -13160,7 +13177,7 @@
       <c r="AL197" s="1"/>
       <c r="AM197" s="1"/>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>40</v>
       </c>
@@ -13214,7 +13231,7 @@
       <c r="AL198" s="1"/>
       <c r="AM198" s="1"/>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>40</v>
       </c>
@@ -13268,7 +13285,7 @@
       <c r="AL199" s="1"/>
       <c r="AM199" s="1"/>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>40</v>
       </c>
@@ -13322,7 +13339,7 @@
       <c r="AL200" s="1"/>
       <c r="AM200" s="1"/>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>40</v>
       </c>
@@ -13376,7 +13393,7 @@
       <c r="AL201" s="1"/>
       <c r="AM201" s="1"/>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>40</v>
       </c>
@@ -13430,7 +13447,7 @@
       <c r="AL202" s="1"/>
       <c r="AM202" s="1"/>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>40</v>
       </c>
@@ -13484,7 +13501,7 @@
       <c r="AL203" s="1"/>
       <c r="AM203" s="1"/>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>40</v>
       </c>
@@ -13538,7 +13555,7 @@
       <c r="AL204" s="1"/>
       <c r="AM204" s="1"/>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>40</v>
       </c>
@@ -13587,7 +13604,7 @@
       <c r="AL205" s="1"/>
       <c r="AM205" s="1"/>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>40</v>
       </c>
@@ -13638,7 +13655,7 @@
       <c r="AL206" s="1"/>
       <c r="AM206" s="1"/>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>40</v>
       </c>
@@ -13689,7 +13706,7 @@
       <c r="AL207" s="1"/>
       <c r="AM207" s="1"/>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>40</v>
       </c>
@@ -13743,7 +13760,7 @@
       <c r="AL208" s="1"/>
       <c r="AM208" s="1"/>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>40</v>
       </c>
@@ -13797,7 +13814,7 @@
       <c r="AL209" s="1"/>
       <c r="AM209" s="1"/>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>40</v>
       </c>
@@ -13851,7 +13868,7 @@
       <c r="AL210" s="1"/>
       <c r="AM210" s="1"/>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>40</v>
       </c>
@@ -13905,7 +13922,7 @@
       <c r="AL211" s="1"/>
       <c r="AM211" s="1"/>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>40</v>
       </c>
@@ -13959,7 +13976,7 @@
       <c r="AL212" s="1"/>
       <c r="AM212" s="1"/>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>40</v>
       </c>
@@ -14013,7 +14030,7 @@
       <c r="AL213" s="1"/>
       <c r="AM213" s="1"/>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>40</v>
       </c>
@@ -14067,7 +14084,7 @@
       <c r="AL214" s="1"/>
       <c r="AM214" s="1"/>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>40</v>
       </c>
@@ -14121,7 +14138,7 @@
       <c r="AL215" s="1"/>
       <c r="AM215" s="1"/>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>40</v>
       </c>
@@ -14172,7 +14189,7 @@
       <c r="AL216" s="1"/>
       <c r="AM216" s="1"/>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>40</v>
       </c>
@@ -14223,7 +14240,7 @@
       <c r="AL217" s="1"/>
       <c r="AM217" s="1"/>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>40</v>
       </c>
@@ -14274,7 +14291,7 @@
       <c r="AL218" s="1"/>
       <c r="AM218" s="1"/>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>40</v>
       </c>
@@ -14328,7 +14345,7 @@
       <c r="AL219" s="1"/>
       <c r="AM219" s="1"/>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>40</v>
       </c>
@@ -14382,7 +14399,7 @@
       <c r="AL220" s="1"/>
       <c r="AM220" s="1"/>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
@@ -14436,7 +14453,7 @@
       <c r="AL221" s="1"/>
       <c r="AM221" s="1"/>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>40</v>
       </c>
@@ -14490,7 +14507,7 @@
       <c r="AL222" s="1"/>
       <c r="AM222" s="1"/>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>40</v>
       </c>
@@ -14544,7 +14561,7 @@
       <c r="AL223" s="1"/>
       <c r="AM223" s="1"/>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>40</v>
       </c>
@@ -14598,7 +14615,7 @@
       <c r="AL224" s="1"/>
       <c r="AM224" s="1"/>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>40</v>
       </c>
@@ -14652,7 +14669,7 @@
       <c r="AL225" s="1"/>
       <c r="AM225" s="1"/>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
@@ -14706,7 +14723,7 @@
       <c r="AL226" s="1"/>
       <c r="AM226" s="1"/>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>40</v>
       </c>
@@ -14755,7 +14772,7 @@
       <c r="AL227" s="1"/>
       <c r="AM227" s="1"/>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>40</v>
       </c>
@@ -14806,7 +14823,7 @@
       <c r="AL228" s="1"/>
       <c r="AM228" s="1"/>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>40</v>
       </c>
@@ -14857,7 +14874,7 @@
       <c r="AL229" s="1"/>
       <c r="AM229" s="1"/>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>40</v>
       </c>
@@ -14911,7 +14928,7 @@
       <c r="AL230" s="1"/>
       <c r="AM230" s="1"/>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>40</v>
       </c>
@@ -14965,7 +14982,7 @@
       <c r="AL231" s="1"/>
       <c r="AM231" s="1"/>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>40</v>
       </c>
@@ -15019,7 +15036,7 @@
       <c r="AL232" s="1"/>
       <c r="AM232" s="1"/>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>40</v>
       </c>
@@ -15073,7 +15090,7 @@
       <c r="AL233" s="1"/>
       <c r="AM233" s="1"/>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>40</v>
       </c>
@@ -15127,7 +15144,7 @@
       <c r="AL234" s="1"/>
       <c r="AM234" s="1"/>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>40</v>
       </c>
@@ -15181,7 +15198,7 @@
       <c r="AL235" s="1"/>
       <c r="AM235" s="1"/>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>40</v>
       </c>
@@ -15235,7 +15252,7 @@
       <c r="AL236" s="1"/>
       <c r="AM236" s="1"/>
     </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>40</v>
       </c>
@@ -15289,7 +15306,7 @@
       <c r="AL237" s="1"/>
       <c r="AM237" s="1"/>
     </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>40</v>
       </c>
@@ -15343,7 +15360,7 @@
       <c r="AL238" s="1"/>
       <c r="AM238" s="1"/>
     </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>40</v>
       </c>
@@ -15397,7 +15414,7 @@
       <c r="AL239" s="1"/>
       <c r="AM239" s="1"/>
     </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>40</v>
       </c>
@@ -15446,7 +15463,7 @@
       <c r="AL240" s="1"/>
       <c r="AM240" s="1"/>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>40</v>
       </c>
@@ -15497,7 +15514,7 @@
       <c r="AL241" s="1"/>
       <c r="AM241" s="1"/>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>40</v>
       </c>
@@ -15548,7 +15565,7 @@
       <c r="AL242" s="1"/>
       <c r="AM242" s="1"/>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>40</v>
       </c>
@@ -15599,7 +15616,7 @@
       <c r="AL243" s="1"/>
       <c r="AM243" s="1"/>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>40</v>
       </c>
@@ -15653,7 +15670,7 @@
       <c r="AL244" s="1"/>
       <c r="AM244" s="1"/>
     </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>40</v>
       </c>
@@ -15707,7 +15724,7 @@
       <c r="AL245" s="1"/>
       <c r="AM245" s="1"/>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>40</v>
       </c>
@@ -15761,7 +15778,7 @@
       <c r="AL246" s="1"/>
       <c r="AM246" s="1"/>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>40</v>
       </c>
@@ -15815,7 +15832,7 @@
       <c r="AL247" s="1"/>
       <c r="AM247" s="1"/>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>40</v>
       </c>
@@ -15869,7 +15886,7 @@
       <c r="AL248" s="1"/>
       <c r="AM248" s="1"/>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>40</v>
       </c>
@@ -15923,7 +15940,7 @@
       <c r="AL249" s="1"/>
       <c r="AM249" s="1"/>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>40</v>
       </c>
@@ -15977,7 +15994,7 @@
       <c r="AL250" s="1"/>
       <c r="AM250" s="1"/>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>40</v>
       </c>
@@ -16031,7 +16048,7 @@
       <c r="AL251" s="1"/>
       <c r="AM251" s="1"/>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>40</v>
       </c>
@@ -16082,7 +16099,7 @@
       <c r="AL252" s="1"/>
       <c r="AM252" s="1"/>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>40</v>
       </c>
@@ -16133,7 +16150,7 @@
       <c r="AL253" s="1"/>
       <c r="AM253" s="1"/>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>40</v>
       </c>
@@ -16184,7 +16201,7 @@
       <c r="AL254" s="1"/>
       <c r="AM254" s="1"/>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>40</v>
       </c>
@@ -16238,7 +16255,7 @@
       <c r="AL255" s="1"/>
       <c r="AM255" s="1"/>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>40</v>
       </c>
@@ -16292,7 +16309,7 @@
       <c r="AL256" s="1"/>
       <c r="AM256" s="1"/>
     </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>40</v>
       </c>
@@ -16346,7 +16363,7 @@
       <c r="AL257" s="1"/>
       <c r="AM257" s="1"/>
     </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>40</v>
       </c>
@@ -16400,7 +16417,7 @@
       <c r="AL258" s="1"/>
       <c r="AM258" s="1"/>
     </row>
-    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>40</v>
       </c>
@@ -16454,7 +16471,7 @@
       <c r="AL259" s="1"/>
       <c r="AM259" s="1"/>
     </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>40</v>
       </c>
@@ -16508,7 +16525,7 @@
       <c r="AL260" s="1"/>
       <c r="AM260" s="1"/>
     </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>40</v>
       </c>
@@ -16562,7 +16579,7 @@
       <c r="AL261" s="1"/>
       <c r="AM261" s="1"/>
     </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>40</v>
       </c>
@@ -16616,7 +16633,7 @@
       <c r="AL262" s="1"/>
       <c r="AM262" s="1"/>
     </row>
-    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>40</v>
       </c>
@@ -16667,7 +16684,7 @@
       <c r="AL263" s="1"/>
       <c r="AM263" s="1"/>
     </row>
-    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>40</v>
       </c>
@@ -16718,7 +16735,7 @@
       <c r="AL264" s="1"/>
       <c r="AM264" s="1"/>
     </row>
-    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>40</v>
       </c>
@@ -16769,7 +16786,7 @@
       <c r="AL265" s="1"/>
       <c r="AM265" s="1"/>
     </row>
-    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>40</v>
       </c>
@@ -16823,7 +16840,7 @@
       <c r="AL266" s="1"/>
       <c r="AM266" s="1"/>
     </row>
-    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>40</v>
       </c>
@@ -16877,7 +16894,7 @@
       <c r="AL267" s="1"/>
       <c r="AM267" s="1"/>
     </row>
-    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>40</v>
       </c>
@@ -16931,7 +16948,7 @@
       <c r="AL268" s="1"/>
       <c r="AM268" s="1"/>
     </row>
-    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>40</v>
       </c>
@@ -16978,7 +16995,7 @@
       <c r="AL269" s="1"/>
       <c r="AM269" s="1"/>
     </row>
-    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>40</v>
       </c>
@@ -17025,7 +17042,7 @@
       <c r="AL270" s="1"/>
       <c r="AM270" s="1"/>
     </row>
-    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>40</v>
       </c>
@@ -17072,7 +17089,7 @@
       <c r="AL271" s="1"/>
       <c r="AM271" s="1"/>
     </row>
-    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>40</v>
       </c>
@@ -17119,7 +17136,7 @@
       <c r="AL272" s="1"/>
       <c r="AM272" s="1"/>
     </row>
-    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>40</v>
       </c>
@@ -17168,7 +17185,7 @@
       <c r="AL273" s="1"/>
       <c r="AM273" s="1"/>
     </row>
-    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>40</v>
       </c>
@@ -17217,7 +17234,7 @@
       <c r="AL274" s="1"/>
       <c r="AM274" s="1"/>
     </row>
-    <row r="275" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>40</v>
       </c>
@@ -17269,7 +17286,7 @@
       <c r="AL275" s="1"/>
       <c r="AM275" s="1"/>
     </row>
-    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>40</v>
       </c>
@@ -17316,7 +17333,7 @@
       <c r="AL276" s="1"/>
       <c r="AM276" s="1"/>
     </row>
-    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>40</v>
       </c>
@@ -17363,7 +17380,7 @@
       <c r="AL277" s="1"/>
       <c r="AM277" s="1"/>
     </row>
-    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>40</v>
       </c>
@@ -17410,7 +17427,7 @@
       <c r="AL278" s="1"/>
       <c r="AM278" s="1"/>
     </row>
-    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>40</v>
       </c>
@@ -17457,7 +17474,7 @@
       <c r="AL279" s="1"/>
       <c r="AM279" s="1"/>
     </row>
-    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>40</v>
       </c>
@@ -17506,7 +17523,7 @@
       <c r="AL280" s="1"/>
       <c r="AM280" s="1"/>
     </row>
-    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>40</v>
       </c>
@@ -17555,7 +17572,7 @@
       <c r="AL281" s="1"/>
       <c r="AM281" s="1"/>
     </row>
-    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>40</v>
       </c>
@@ -17607,7 +17624,7 @@
       <c r="AL282" s="1"/>
       <c r="AM282" s="1"/>
     </row>
-    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>40</v>
       </c>
@@ -17659,7 +17676,7 @@
       <c r="AL283" s="1"/>
       <c r="AM283" s="1"/>
     </row>
-    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>40</v>
       </c>
@@ -17711,7 +17728,7 @@
       <c r="AL284" s="1"/>
       <c r="AM284" s="1"/>
     </row>
-    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>40</v>
       </c>
@@ -17758,7 +17775,7 @@
       <c r="AL285" s="1"/>
       <c r="AM285" s="1"/>
     </row>
-    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>40</v>
       </c>
@@ -17805,7 +17822,7 @@
       <c r="AL286" s="1"/>
       <c r="AM286" s="1"/>
     </row>
-    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>40</v>
       </c>
@@ -17852,7 +17869,7 @@
       <c r="AL287" s="1"/>
       <c r="AM287" s="1"/>
     </row>
-    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>40</v>
       </c>
@@ -17899,7 +17916,7 @@
       <c r="AL288" s="1"/>
       <c r="AM288" s="1"/>
     </row>
-    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>40</v>
       </c>
@@ -17948,7 +17965,7 @@
       <c r="AL289" s="1"/>
       <c r="AM289" s="1"/>
     </row>
-    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>40</v>
       </c>
@@ -17997,7 +18014,7 @@
       <c r="AL290" s="1"/>
       <c r="AM290" s="1"/>
     </row>
-    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>40</v>
       </c>
@@ -18049,7 +18066,7 @@
       <c r="AL291" s="1"/>
       <c r="AM291" s="1"/>
     </row>
-    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>40</v>
       </c>
@@ -18101,7 +18118,7 @@
       <c r="AL292" s="1"/>
       <c r="AM292" s="1"/>
     </row>
-    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>40</v>
       </c>
@@ -18153,7 +18170,7 @@
       <c r="AL293" s="1"/>
       <c r="AM293" s="1"/>
     </row>
-    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>40</v>
       </c>
@@ -18205,7 +18222,7 @@
       <c r="AL294" s="1"/>
       <c r="AM294" s="1"/>
     </row>
-    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>40</v>
       </c>
@@ -18252,7 +18269,7 @@
       <c r="AL295" s="1"/>
       <c r="AM295" s="1"/>
     </row>
-    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>40</v>
       </c>
@@ -18299,7 +18316,7 @@
       <c r="AL296" s="1"/>
       <c r="AM296" s="1"/>
     </row>
-    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>40</v>
       </c>
@@ -18348,7 +18365,7 @@
       <c r="AL297" s="1"/>
       <c r="AM297" s="1"/>
     </row>
-    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>40</v>
       </c>
@@ -18397,7 +18414,7 @@
       <c r="AL298" s="1"/>
       <c r="AM298" s="1"/>
     </row>
-    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>40</v>
       </c>
@@ -18446,7 +18463,7 @@
       <c r="AL299" s="1"/>
       <c r="AM299" s="1"/>
     </row>
-    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>40</v>
       </c>
@@ -18498,7 +18515,7 @@
       <c r="AL300" s="1"/>
       <c r="AM300" s="1"/>
     </row>
-    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>40</v>
       </c>
@@ -18550,7 +18567,7 @@
       <c r="AL301" s="1"/>
       <c r="AM301" s="1"/>
     </row>
-    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>40</v>
       </c>
@@ -18599,7 +18616,7 @@
       <c r="AL302" s="1"/>
       <c r="AM302" s="1"/>
     </row>
-    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>40</v>
       </c>
@@ -18650,7 +18667,7 @@
       <c r="AL303" s="1"/>
       <c r="AM303" s="1"/>
     </row>
-    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>40</v>
       </c>
@@ -18701,7 +18718,7 @@
       <c r="AL304" s="1"/>
       <c r="AM304" s="1"/>
     </row>
-    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>40</v>
       </c>
@@ -18752,7 +18769,7 @@
       <c r="AL305" s="1"/>
       <c r="AM305" s="1"/>
     </row>
-    <row r="306" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>40</v>
       </c>
@@ -18803,7 +18820,7 @@
       <c r="AL306" s="1"/>
       <c r="AM306" s="1"/>
     </row>
-    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>40</v>
       </c>
@@ -18857,7 +18874,7 @@
       <c r="AL307" s="1"/>
       <c r="AM307" s="1"/>
     </row>
-    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>40</v>
       </c>
@@ -18911,7 +18928,7 @@
       <c r="AL308" s="1"/>
       <c r="AM308" s="1"/>
     </row>
-    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>40</v>
       </c>
@@ -18965,7 +18982,7 @@
       <c r="AL309" s="1"/>
       <c r="AM309" s="1"/>
     </row>
-    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>40</v>
       </c>
@@ -19019,7 +19036,7 @@
       <c r="AL310" s="1"/>
       <c r="AM310" s="1"/>
     </row>
-    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>40</v>
       </c>
@@ -19066,7 +19083,7 @@
       <c r="AL311" s="1"/>
       <c r="AM311" s="1"/>
     </row>
-    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>40</v>
       </c>
@@ -19113,7 +19130,7 @@
       <c r="AL312" s="1"/>
       <c r="AM312" s="1"/>
     </row>
-    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>40</v>
       </c>
@@ -19162,7 +19179,7 @@
       <c r="AL313" s="1"/>
       <c r="AM313" s="1"/>
     </row>
-    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>40</v>
       </c>
@@ -19211,7 +19228,7 @@
       <c r="AL314" s="1"/>
       <c r="AM314" s="1"/>
     </row>
-    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>40</v>
       </c>
@@ -19260,7 +19277,7 @@
       <c r="AL315" s="1"/>
       <c r="AM315" s="1"/>
     </row>
-    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>40</v>
       </c>
@@ -19309,7 +19326,7 @@
       <c r="AL316" s="1"/>
       <c r="AM316" s="1"/>
     </row>
-    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>40</v>
       </c>
@@ -19361,7 +19378,7 @@
       <c r="AL317" s="1"/>
       <c r="AM317" s="1"/>
     </row>
-    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>40</v>
       </c>
@@ -19413,7 +19430,7 @@
       <c r="AL318" s="1"/>
       <c r="AM318" s="1"/>
     </row>
-    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>40</v>
       </c>
@@ -19462,7 +19479,7 @@
       <c r="AL319" s="1"/>
       <c r="AM319" s="1"/>
     </row>
-    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>40</v>
       </c>
@@ -19511,7 +19528,7 @@
       <c r="AL320" s="1"/>
       <c r="AM320" s="1"/>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>40</v>
       </c>
@@ -19563,7 +19580,7 @@
       <c r="AL321" s="1"/>
       <c r="AM321" s="1"/>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>40</v>
       </c>
@@ -19606,7 +19623,7 @@
       <c r="AL322" s="1"/>
       <c r="AM322" s="1"/>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>40</v>
       </c>
@@ -19649,7 +19666,7 @@
       <c r="AL323" s="1"/>
       <c r="AM323" s="1"/>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>40</v>
       </c>
@@ -19692,7 +19709,7 @@
       <c r="AL324" s="1"/>
       <c r="AM324" s="1"/>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>40</v>
       </c>
@@ -19735,7 +19752,7 @@
       <c r="AL325" s="1"/>
       <c r="AM325" s="1"/>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>40</v>
       </c>
@@ -19784,7 +19801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>40</v>
       </c>
@@ -19833,7 +19850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
@@ -19882,7 +19899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>40</v>
       </c>
@@ -19931,7 +19948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>40</v>
       </c>
@@ -19980,7 +19997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>40</v>
       </c>
@@ -20029,7 +20046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>40</v>
       </c>
@@ -20078,7 +20095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>40</v>
       </c>
@@ -20127,7 +20144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>40</v>
       </c>
@@ -20176,7 +20193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>40</v>
       </c>
@@ -20225,7 +20242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>40</v>
       </c>
@@ -20274,7 +20291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>40</v>
       </c>
@@ -20323,7 +20340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>40</v>
       </c>
@@ -20372,7 +20389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>40</v>
       </c>
@@ -20421,7 +20438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>40</v>
       </c>
@@ -20470,7 +20487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>40</v>
       </c>
@@ -20519,7 +20536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>40</v>
       </c>
@@ -20568,7 +20585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>40</v>
       </c>
@@ -20617,7 +20634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>40</v>
       </c>
@@ -20666,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>40</v>
       </c>
@@ -20715,7 +20732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>40</v>
       </c>
@@ -20764,7 +20781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>40</v>
       </c>
@@ -20813,7 +20830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>40</v>
       </c>
@@ -20862,7 +20879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>40</v>
       </c>
@@ -20911,7 +20928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>40</v>
       </c>
@@ -20960,7 +20977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>40</v>
       </c>
@@ -21009,7 +21026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>40</v>
       </c>
@@ -21058,7 +21075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>40</v>
       </c>
@@ -21107,7 +21124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>40</v>
       </c>
@@ -21156,7 +21173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>40</v>
       </c>
@@ -21205,7 +21222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>40</v>
       </c>
@@ -21254,7 +21271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>40</v>
       </c>
@@ -21303,7 +21320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>40</v>
       </c>
@@ -21352,7 +21369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>40</v>
       </c>
@@ -21401,7 +21418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>40</v>
       </c>
@@ -21450,7 +21467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>40</v>
       </c>
@@ -21499,7 +21516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>40</v>
       </c>
@@ -21548,7 +21565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>40</v>
       </c>
@@ -21597,7 +21614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>40</v>
       </c>
@@ -21646,7 +21663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>40</v>
       </c>
@@ -21695,7 +21712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>40</v>
       </c>
@@ -21744,7 +21761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>40</v>
       </c>
@@ -21793,7 +21810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>40</v>
       </c>
@@ -21842,7 +21859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>40</v>
       </c>
@@ -21891,7 +21908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>40</v>
       </c>
@@ -21940,7 +21957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>40</v>
       </c>
@@ -21989,7 +22006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>40</v>
       </c>
@@ -22038,7 +22055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>40</v>
       </c>
@@ -22087,7 +22104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>40</v>
       </c>
@@ -22136,7 +22153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>40</v>
       </c>
@@ -22185,7 +22202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>40</v>
       </c>
@@ -22234,7 +22251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>40</v>
       </c>
@@ -22283,7 +22300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>40</v>
       </c>
@@ -22332,7 +22349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>40</v>
       </c>
@@ -22381,7 +22398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>40</v>
       </c>
@@ -22430,7 +22447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>40</v>
       </c>
@@ -22479,7 +22496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>40</v>
       </c>
@@ -22528,7 +22545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>40</v>
       </c>
@@ -22577,7 +22594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>40</v>
       </c>
@@ -22626,7 +22643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>40</v>
       </c>
@@ -22675,7 +22692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>40</v>
       </c>
@@ -22724,7 +22741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>40</v>
       </c>
@@ -22773,7 +22790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>40</v>
       </c>
@@ -22822,7 +22839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>40</v>
       </c>
@@ -22871,7 +22888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>40</v>
       </c>
@@ -22920,7 +22937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>40</v>
       </c>
@@ -22969,7 +22986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>40</v>
       </c>
@@ -23018,7 +23035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>40</v>
       </c>
@@ -23067,7 +23084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>40</v>
       </c>
@@ -23116,7 +23133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>40</v>
       </c>
@@ -23165,7 +23182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>40</v>
       </c>
@@ -23214,7 +23231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>40</v>
       </c>
@@ -23263,7 +23280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>40</v>
       </c>
@@ -23312,7 +23329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>40</v>
       </c>
@@ -23361,7 +23378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>40</v>
       </c>
@@ -23410,7 +23427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>40</v>
       </c>
@@ -23459,7 +23476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>40</v>
       </c>
@@ -23508,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>40</v>
       </c>
@@ -23557,7 +23574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>40</v>
       </c>
@@ -23606,7 +23623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>40</v>
       </c>
@@ -23655,7 +23672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>40</v>
       </c>
@@ -23704,7 +23721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>40</v>
       </c>
@@ -23753,7 +23770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>40</v>
       </c>
@@ -23802,7 +23819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>40</v>
       </c>
@@ -23851,7 +23868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>40</v>
       </c>
@@ -23900,7 +23917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>40</v>
       </c>
@@ -23949,7 +23966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>40</v>
       </c>
@@ -23998,7 +24015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>40</v>
       </c>
@@ -24047,7 +24064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>40</v>
       </c>
@@ -24096,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>40</v>
       </c>
@@ -24145,7 +24162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>40</v>
       </c>
@@ -24194,7 +24211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>40</v>
       </c>
@@ -24243,7 +24260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>40</v>
       </c>
@@ -24292,7 +24309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>40</v>
       </c>
@@ -24341,7 +24358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>40</v>
       </c>
@@ -24390,7 +24407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>40</v>
       </c>
@@ -24439,7 +24456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>40</v>
       </c>
@@ -24488,7 +24505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>40</v>
       </c>
@@ -24537,7 +24554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>40</v>
       </c>
@@ -24586,7 +24603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>40</v>
       </c>
@@ -24635,7 +24652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>40</v>
       </c>
@@ -24684,7 +24701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>40</v>
       </c>
@@ -24733,7 +24750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>40</v>
       </c>
@@ -24782,7 +24799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>40</v>
       </c>
@@ -24831,7 +24848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>40</v>
       </c>
@@ -24880,7 +24897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>40</v>
       </c>
@@ -24929,7 +24946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>40</v>
       </c>
@@ -24978,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>40</v>
       </c>
@@ -25027,7 +25044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>40</v>
       </c>
@@ -25076,7 +25093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>40</v>
       </c>
@@ -25125,7 +25142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>40</v>
       </c>
@@ -25174,7 +25191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>40</v>
       </c>
@@ -25223,7 +25240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>40</v>
       </c>
@@ -25272,7 +25289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>40</v>
       </c>
@@ -25321,7 +25338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>40</v>
       </c>
@@ -25370,7 +25387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>40</v>
       </c>
@@ -25419,7 +25436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>40</v>
       </c>
@@ -25468,7 +25485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>40</v>
       </c>
@@ -25517,7 +25534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>40</v>
       </c>
@@ -25566,7 +25583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>40</v>
       </c>
@@ -25615,7 +25632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>40</v>
       </c>
@@ -25664,7 +25681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>40</v>
       </c>
@@ -25713,7 +25730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>40</v>
       </c>
@@ -25762,7 +25779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>40</v>
       </c>
@@ -25811,7 +25828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>40</v>
       </c>
@@ -25860,7 +25877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>40</v>
       </c>
@@ -25909,7 +25926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>40</v>
       </c>
@@ -25958,7 +25975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>40</v>
       </c>
@@ -26007,7 +26024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>40</v>
       </c>
@@ -26056,7 +26073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>40</v>
       </c>
@@ -26105,7 +26122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>40</v>
       </c>
@@ -26154,7 +26171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>40</v>
       </c>
@@ -26203,7 +26220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>40</v>
       </c>
@@ -26252,7 +26269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>40</v>
       </c>
@@ -26301,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>40</v>
       </c>
@@ -26350,7 +26367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>40</v>
       </c>
@@ -26399,7 +26416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>40</v>
       </c>
@@ -26448,7 +26465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>40</v>
       </c>
@@ -26497,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>40</v>
       </c>
@@ -26546,7 +26563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>40</v>
       </c>
@@ -26595,7 +26612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>40</v>
       </c>
@@ -26644,7 +26661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>40</v>
       </c>
@@ -26693,7 +26710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>40</v>
       </c>
@@ -26742,7 +26759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>40</v>
       </c>
@@ -26791,7 +26808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>40</v>
       </c>
@@ -26840,7 +26857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>40</v>
       </c>
@@ -26889,7 +26906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>40</v>
       </c>
@@ -26938,7 +26955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>40</v>
       </c>
@@ -26987,7 +27004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>40</v>
       </c>
@@ -27036,7 +27053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>40</v>
       </c>
@@ -27085,7 +27102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>40</v>
       </c>
@@ -27134,7 +27151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>40</v>
       </c>
@@ -27183,7 +27200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>40</v>
       </c>
@@ -27232,7 +27249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>40</v>
       </c>
@@ -27281,7 +27298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>40</v>
       </c>
@@ -27330,7 +27347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>40</v>
       </c>
@@ -27379,7 +27396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>40</v>
       </c>
@@ -27428,7 +27445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>40</v>
       </c>
@@ -27477,7 +27494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>40</v>
       </c>
@@ -27526,7 +27543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>40</v>
       </c>
@@ -27575,7 +27592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>40</v>
       </c>
@@ -27624,7 +27641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>40</v>
       </c>
@@ -27673,7 +27690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>40</v>
       </c>
@@ -27722,7 +27739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>40</v>
       </c>
@@ -27771,7 +27788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>40</v>
       </c>
@@ -27820,7 +27837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>40</v>
       </c>
@@ -27869,7 +27886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>40</v>
       </c>
@@ -27918,7 +27935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>40</v>
       </c>
@@ -27967,7 +27984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>40</v>
       </c>
@@ -28016,7 +28033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>40</v>
       </c>
@@ -28065,7 +28082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>40</v>
       </c>
@@ -28114,7 +28131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>40</v>
       </c>
@@ -28163,7 +28180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>40</v>
       </c>
@@ -28212,7 +28229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>40</v>
       </c>
@@ -28261,7 +28278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>40</v>
       </c>
@@ -28310,7 +28327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>40</v>
       </c>
@@ -28359,7 +28376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>40</v>
       </c>
@@ -28408,7 +28425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>40</v>
       </c>
@@ -28457,7 +28474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>40</v>
       </c>
@@ -28506,7 +28523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>40</v>
       </c>
@@ -28555,7 +28572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>40</v>
       </c>
@@ -28604,7 +28621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>40</v>
       </c>
@@ -28653,7 +28670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>40</v>
       </c>
@@ -28702,7 +28719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>40</v>
       </c>
@@ -28751,7 +28768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>40</v>
       </c>
@@ -28800,7 +28817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>40</v>
       </c>
@@ -28849,7 +28866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>40</v>
       </c>
@@ -28898,7 +28915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>40</v>
       </c>
@@ -28947,7 +28964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>40</v>
       </c>
@@ -28996,7 +29013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>40</v>
       </c>
@@ -29045,7 +29062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>40</v>
       </c>
@@ -29094,7 +29111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>40</v>
       </c>
@@ -29143,7 +29160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>40</v>
       </c>
@@ -29192,7 +29209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>40</v>
       </c>
@@ -29241,7 +29258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>40</v>
       </c>
@@ -29290,7 +29307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>40</v>
       </c>
@@ -29339,7 +29356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>40</v>
       </c>
@@ -29388,7 +29405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>40</v>
       </c>
@@ -29437,7 +29454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>40</v>
       </c>
@@ -29486,7 +29503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>40</v>
       </c>
@@ -29535,7 +29552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>40</v>
       </c>
@@ -29584,7 +29601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>40</v>
       </c>
@@ -29633,7 +29650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>40</v>
       </c>
@@ -29682,7 +29699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>40</v>
       </c>
@@ -29731,7 +29748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>40</v>
       </c>
@@ -29780,7 +29797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>40</v>
       </c>
@@ -29829,7 +29846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>40</v>
       </c>
@@ -29878,7 +29895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>40</v>
       </c>
@@ -29927,7 +29944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>40</v>
       </c>
@@ -29976,7 +29993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>40</v>
       </c>
@@ -30025,7 +30042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>40</v>
       </c>
@@ -30074,7 +30091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>40</v>
       </c>
@@ -30123,7 +30140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>40</v>
       </c>
@@ -30172,7 +30189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>40</v>
       </c>
@@ -30221,7 +30238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>40</v>
       </c>
@@ -30270,7 +30287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>40</v>
       </c>
@@ -30319,7 +30336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>40</v>
       </c>
@@ -30368,7 +30385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>40</v>
       </c>
@@ -30417,7 +30434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>40</v>
       </c>
@@ -30466,7 +30483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>40</v>
       </c>
@@ -30515,7 +30532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>40</v>
       </c>
@@ -30564,7 +30581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>40</v>
       </c>
@@ -30613,7 +30630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>40</v>
       </c>
@@ -30662,7 +30679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>40</v>
       </c>
@@ -30711,7 +30728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>40</v>
       </c>
@@ -30760,7 +30777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>40</v>
       </c>
@@ -30809,7 +30826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>40</v>
       </c>
@@ -30858,7 +30875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>40</v>
       </c>
@@ -30907,7 +30924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>40</v>
       </c>
@@ -30956,7 +30973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>40</v>
       </c>
@@ -31005,7 +31022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>40</v>
       </c>
@@ -31054,7 +31071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>40</v>
       </c>
@@ -31103,7 +31120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>40</v>
       </c>
@@ -31152,7 +31169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>40</v>
       </c>
@@ -31201,7 +31218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>40</v>
       </c>
@@ -31250,7 +31267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>40</v>
       </c>
@@ -31299,7 +31316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>40</v>
       </c>
@@ -31348,7 +31365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>40</v>
       </c>
@@ -31397,7 +31414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>40</v>
       </c>
@@ -31446,7 +31463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>40</v>
       </c>
@@ -31495,7 +31512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>40</v>
       </c>
@@ -31544,7 +31561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>40</v>
       </c>
@@ -31593,7 +31610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>40</v>
       </c>
@@ -31642,7 +31659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>40</v>
       </c>
@@ -31691,7 +31708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>40</v>
       </c>
@@ -31740,7 +31757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>40</v>
       </c>
@@ -31789,7 +31806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>40</v>
       </c>
@@ -31838,7 +31855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>40</v>
       </c>
@@ -31887,7 +31904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>40</v>
       </c>
@@ -31936,7 +31953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>40</v>
       </c>
@@ -31985,7 +32002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>40</v>
       </c>
@@ -32034,7 +32051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>40</v>
       </c>
@@ -32083,7 +32100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>40</v>
       </c>
@@ -32132,7 +32149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>40</v>
       </c>
@@ -32194,7 +32211,7 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33212,16 +33229,30 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="C32" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -33421,7 +33452,7 @@
   <dimension ref="C1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
